--- a/PCB/EEGFrontOnly_BOM_Cost_Comp.xlsx
+++ b/PCB/EEGFrontOnly_BOM_Cost_Comp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
   <si>
     <t>Designator</t>
   </si>
@@ -269,9 +269,6 @@
     <t>U4,U5</t>
   </si>
   <si>
-    <t>TPS60403DBVT</t>
-  </si>
-  <si>
     <t>DC-DC</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>IC2</t>
   </si>
   <si>
-    <t>AduM3151</t>
-  </si>
-  <si>
     <t>ADS1299IPAGR</t>
   </si>
   <si>
@@ -402,6 +396,15 @@
   </si>
   <si>
     <t>排针</t>
+  </si>
+  <si>
+    <t>已经有了</t>
+  </si>
+  <si>
+    <t>ADUM3151ARSZ</t>
+  </si>
+  <si>
+    <t>TPS60403DBVR</t>
   </si>
 </sst>
 </file>
@@ -726,13 +729,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -758,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1229,8 +1233,11 @@
       <c r="E21">
         <v>5</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I21">
         <v>6.67</v>
@@ -1241,10 +1248,10 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>77</v>
@@ -1252,11 +1259,11 @@
       <c r="E22">
         <v>5</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="G22" t="s">
         <v>78</v>
-      </c>
-      <c r="H22" t="s">
-        <v>108</v>
       </c>
       <c r="I22">
         <v>4.28</v>
@@ -1270,7 +1277,7 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>77</v>
@@ -1278,28 +1285,37 @@
       <c r="E23">
         <v>5</v>
       </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
       <c r="I23">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I24">
         <v>4.8</v>
@@ -1307,22 +1323,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25">
         <v>1.0900000000000001</v>
@@ -1330,19 +1349,25 @@
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
+        <v>106</v>
       </c>
       <c r="I26">
         <v>27.78</v>
@@ -1351,16 +1376,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
       </c>
       <c r="I27">
         <v>296.5</v>
@@ -1368,19 +1399,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I28">
         <v>45.6</v>
@@ -1388,13 +1422,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29">
@@ -1409,16 +1443,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1429,13 +1463,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1446,16 +1480,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1466,10 +1500,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1"/>
       <c r="F33">
@@ -1481,10 +1515,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1"/>
       <c r="I34">
